--- a/biology/Botanique/Catless/Catless.xlsx
+++ b/biology/Botanique/Catless/Catless.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un catless est une friture à base de pomme de terre que l'on rencontre dans la cuisine mauricienne, la cuisine réunionnaise d'origine zarabes (où ils sont appelés tiamps[1]) et la cuisine malgache (où ils sont dénommés katlezy[1]). Chez les musulmans de ces îles, ces amuse-gueules sont particulièrement appréciés pendant le Ramadan.
-À l'origine, le catless, mets originaire d'Inde, désigne des morceaux de poulet désossés, marinés dans plusieurs épices et frits[2]. Aujourd'hui, le poulet peut être remplacé par du bœuf ou du poisson comme le thon, voire divers légumes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un catless est une friture à base de pomme de terre que l'on rencontre dans la cuisine mauricienne, la cuisine réunionnaise d'origine zarabes (où ils sont appelés tiamps) et la cuisine malgache (où ils sont dénommés katlezy). Chez les musulmans de ces îles, ces amuse-gueules sont particulièrement appréciés pendant le Ramadan.
+À l'origine, le catless, mets originaire d'Inde, désigne des morceaux de poulet désossés, marinés dans plusieurs épices et frits. Aujourd'hui, le poulet peut être remplacé par du bœuf ou du poisson comme le thon, voire divers légumes.
 </t>
         </is>
       </c>
